--- a/biology/Zoologie/Carl_von_Heyden/Carl_von_Heyden.xlsx
+++ b/biology/Zoologie/Carl_von_Heyden/Carl_von_Heyden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Heinrich Georg(es) von Heyden (20 janvier 1793 à Francfort - 7 juillet 1866) est un sénateur et entomologiste allemand. Il collectionnait les insectes de tous les ordres, mais il s'intéressait plus particulièrement aux coléoptères, microlépidoptères, hyménoptères, diptères et insectes fossiles. Sa collection a été répartie entre l'Institut allemand d'Entomologie et le musée Senckenberg.
 </t>
